--- a/first.xlsx
+++ b/first.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjubisht\Documents\GitHub\SNAPTEST18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E97082-3945-42A7-8664-9E9C5C27112C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3922266A-090F-4E21-864D-3B0EF37383C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1220,7 +1220,7 @@
   <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I91" sqref="I91"/>
+      <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/first.xlsx
+++ b/first.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjubisht\Documents\GitHub\SNAPTEST18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3922266A-090F-4E21-864D-3B0EF37383C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78456610-A299-4246-BE88-F8714BB0046D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1220,7 +1220,7 @@
   <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H98" sqref="H98"/>
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
